--- a/public/assets/PlaceImport.xlsx
+++ b/public/assets/PlaceImport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\hrba\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Ampps\www\SASA\sasa_mtcgtc\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7ADD7F-B96D-4492-95F0-B9331652BD80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CODE</t>
   </si>
@@ -37,12 +38,6 @@
   </si>
   <si>
     <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>PROVINCE</t>
-  </si>
-  <si>
-    <t>CITY</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -54,18 +49,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -101,15 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,14 +377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -405,7 +393,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,25 +418,13 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>106.9212855</v>
       </c>
       <c r="F2">
         <v>-6.2241030999999998</v>
-      </c>
-      <c r="G2" s="3">
-        <v>91</v>
-      </c>
-      <c r="H2" s="3">
-        <v>9101</v>
       </c>
     </row>
   </sheetData>
